--- a/data/human_capital.xlsx
+++ b/data/human_capital.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viktor/Library/CloudStorage/GoogleDrive-viksabot@gmail.com/My Drive/CCL/analyses/MultidimensionalECI/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC404A-0BB6-DA48-BA06-39E005FED274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B50D4-B58C-954B-B6D0-08093B7966FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="860" windowWidth="24640" windowHeight="13580" xr2:uid="{15FDA532-7471-4F4C-A4A1-3452D1EC3FF9}"/>
   </bookViews>
@@ -912,9 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B86F27-A8E1-4044-BA74-E424A5C8B381}">
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
